--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>4.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.97</v>
+        <v>4.41</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.46</v>
+        <v>3.12</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.27</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.03</v>
+        <v>2.01</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.27</v>
+        <v>4.25</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.16</v>
+        <v>2.21</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.41</v>
+        <v>1.97</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.12</v>
+        <v>3.46</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.01</v>
+        <v>4.03</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>18/08/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>3.25</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:39</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>18/08/2023 19:25</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:39</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,15 +1800,15 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1816,24 +1816,24 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>3.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.63</v>
+        <v>3.47</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>4.36</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.74</v>
+        <v>6.72</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.97</v>
+        <v>2.41</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.48</v>
+        <v>3.09</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.08</v>
+        <v>2.67</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.45</v>
+        <v>3.27</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.66</v>
+        <v>3.08</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.46</v>
+        <v>2.45</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.81</v>
+        <v>1.93</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>2.24</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.09</v>
+        <v>3.55</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:03</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.67</v>
+        <v>3.66</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.27</v>
+        <v>3.46</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.36</v>
+        <v>3.93</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.72</v>
+        <v>5.74</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.39</v>
+        <v>3.78</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.89</v>
+        <v>3.15</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.18</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.06</v>
+        <v>3.83</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.86</v>
+        <v>4.39</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.48</v>
+        <v>5.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.97</v>
+        <v>2.47</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.36</v>
+        <v>3.24</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.39</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.72</v>
+        <v>2.79</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
         </is>
       </c>
     </row>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>3.18</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -3000,36 +3000,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.34</v>
+        <v>3.86</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.46</v>
+        <v>2.48</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.79</v>
+        <v>3.34</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.61</v>
+        <v>3.46</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -3425,30 +3425,30 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.07</v>
+        <v>2.74</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3456,40 +3456,40 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.54</v>
+        <v>3.05</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>08/09/2023 19:19</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>05/09/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>08/09/2023 19:29</t>
         </is>
       </c>
-      <c r="R33" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>05/09/2023 22:11</t>
-        </is>
-      </c>
-      <c r="T33" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>08/09/2023 19:29</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,63 +3525,63 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:19</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.67</v>
+        <v>2.53</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.87</v>
+        <v>2.67</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:20</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.59</v>
+        <v>3.79</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,11 +3816,11 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.78</v>
+        <v>3.87</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:20</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.67</v>
+        <v>2.07</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.22</v>
+        <v>3.86</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>3.54</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.79</v>
+        <v>5.11</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.98</v>
+        <v>3.57</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.87</v>
+        <v>4.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.48</v>
+        <v>3.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.77</v>
+        <v>2.87</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.3</v>
+        <v>5.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.94</v>
+        <v>3.77</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.26</v>
+        <v>3.49</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.02</v>
+        <v>4.3</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.18</v>
+        <v>3.94</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.26</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,32 +4844,32 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
+          <t>15/09/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>12/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
           <t>15/09/2023 19:28</t>
         </is>
       </c>
-      <c r="R48" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>12/09/2023 12:42</t>
-        </is>
-      </c>
-      <c r="T48" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>15/09/2023 19:28</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,650 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/versailles-sochaux/pnJ10wPI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:23</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:56</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>GOAL FC</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45205.8125</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>04/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:25</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.37</v>
+        <v>1.84</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.32</v>
+        <v>1.61</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.38</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.99</v>
+        <v>3.93</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>4.22</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.45</v>
+        <v>5.74</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.84</v>
+        <v>3.37</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.61</v>
+        <v>3.32</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.63</v>
+        <v>3.38</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.93</v>
+        <v>2.99</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.22</v>
+        <v>2.08</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>5.74</v>
+        <v>2.45</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,190 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.8125</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:22</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:22</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>06/10/2023 06:22</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.8125</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.88</v>
+        <v>2.81</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>2.41</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.47</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.36</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.24</v>
+        <v>2.67</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>6.72</v>
+        <v>3.27</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.81</v>
+        <v>2.18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.41</v>
+        <v>2.97</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.09</v>
+        <v>3.48</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:03</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.67</v>
+        <v>3.08</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.27</v>
+        <v>2.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.97</v>
+        <v>2.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.08</v>
+        <v>3.66</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.45</v>
+        <v>3.46</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.93</v>
+        <v>3.37</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.24</v>
+        <v>3.32</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.55</v>
+        <v>3.38</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>2.99</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.66</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.46</v>
+        <v>2.45</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.37</v>
+        <v>1.88</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.32</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.08</v>
+        <v>4.24</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.45</v>
+        <v>6.72</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>7.33</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>06/10/2023 19:22</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>05/10/2023 11:56</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>06/10/2023 19:22</t>
-        </is>
-      </c>
       <c r="R69" t="n">
-        <v>2.21</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.21</v>
+        <v>2.93</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,11 +6852,11 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>3.01</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,38 +7113,38 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.73</v>
+        <v>3.45</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.98</v>
+        <v>3.31</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,24 +7152,24 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.09</v>
+        <v>2.21</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.93</v>
+        <v>2.21</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.64</v>
+        <v>4.05</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.55</v>
+        <v>7.33</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,742 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45210.8125</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>08/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/avranches-martigues/6VjnxPzU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45210.8125</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>11/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-rouen/GtbZvRjB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45210.875</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:20</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.16</v>
+        <v>3.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.37</v>
+        <v>4.25</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.22</v>
+        <v>2.15</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.07</v>
+        <v>1.93</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-avranches/Umr5Zzvh/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.48</v>
+        <v>1.91</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.19</v>
+        <v>2</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.09</v>
+        <v>3.47</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.92</v>
+        <v>3.83</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.66</v>
+        <v>3.83</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-chateauroux/hjZPUChN/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Le Mans</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.12</v>
+        <v>2.19</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.41</v>
+        <v>3.09</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.43</v>
+        <v>3.66</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-chateauroux/hjZPUChN/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:23</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>11/08/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:23</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>3.37</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>11/08/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>10/08/2023 18:23</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>11/08/2023 19:07</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>10/08/2023 18:23</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>11/08/2023 19:07</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>10/08/2023 18:23</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>3.07</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:07</t>
+          <t>11/08/2023 19:28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-avranches/Umr5Zzvh/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3.12</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.47</v>
+        <v>3.41</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.21</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.83</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.83</v>
+        <v>2.43</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,32 +1256,32 @@
         </is>
       </c>
       <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>18/08/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>18/08/2023 19:22</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:40</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>3.96</v>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>4.16</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.41</v>
+        <v>1.97</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.12</v>
+        <v>3.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.01</v>
+        <v>4.03</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.33</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.41</v>
+        <v>3.17</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.25</v>
+        <v>3.27</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.21</v>
+        <v>4.16</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.97</v>
+        <v>4.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.46</v>
+        <v>3.12</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.27</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.03</v>
+        <v>2.01</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.94</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.71</v>
+        <v>2.75</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.27</v>
+        <v>3.75</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.73</v>
+        <v>1.88</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.46</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.12</v>
+        <v>3.47</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>4.36</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.73</v>
+        <v>4.24</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.07</v>
+        <v>6.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>2.73</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.47</v>
+        <v>3.12</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.24</v>
+        <v>2.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.72</v>
+        <v>3.07</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.34</v>
+        <v>1.62</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.44</v>
+        <v>3.52</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.34</v>
+        <v>3.83</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.78</v>
+        <v>4.39</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.15</v>
+        <v>5.89</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.84</v>
+        <v>2.47</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.39</v>
+        <v>2.79</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>5.89</v>
+        <v>3.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.47</v>
+        <v>1.97</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.79</v>
+        <v>3.72</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -3000,36 +3000,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.48</v>
+        <v>3.46</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -3149,30 +3149,30 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,31 +3180,31 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.34</v>
+        <v>3.78</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.46</v>
+        <v>3.15</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.05</v>
+        <v>3.18</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>3.86</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>3</v>
-      </c>
       <c r="J33" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.05</v>
+        <v>3.19</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:19</t>
+          <t>08/09/2023 18:55</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.67</v>
+        <v>3.12</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.95</v>
+        <v>2.08</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.78</v>
+        <v>2.67</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.53</v>
+        <v>3.79</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.48</v>
+        <v>3.87</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08/09/2023 18:55</t>
+          <t>08/09/2023 19:20</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.12</v>
+        <v>2.59</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.08</v>
+        <v>2.95</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.67</v>
+        <v>2.78</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.79</v>
+        <v>2.53</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
         </is>
       </c>
     </row>
@@ -3793,71 +3793,71 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>1.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.87</v>
+        <v>2.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.34</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:20</t>
+          <t>08/09/2023 19:19</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.59</v>
+        <v>3.67</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.2</v>
+        <v>2.84</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,63 +4261,63 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.36</v>
+        <v>3.95</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.75</v>
+        <v>4.98</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.28</v>
+        <v>4.36</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.95</v>
+        <v>3.27</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.36</v>
+        <v>2.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
         </is>
       </c>
     </row>
@@ -4437,30 +4437,30 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,15 +4484,15 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.26</v>
+        <v>3.75</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.87</v>
+        <v>3.28</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.6</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.48</v>
+        <v>4.3</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.77</v>
+        <v>3.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.79</v>
+        <v>2.83</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.06</v>
+        <v>2.69</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.49</v>
+        <v>3.27</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.3</v>
+        <v>2.43</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.94</v>
+        <v>2.95</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
         <v>2</v>
       </c>
-      <c r="J47" t="n">
-        <v>2.83</v>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.69</v>
+        <v>1.99</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N47" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>12/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
         <v>3.27</v>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>11/09/2023 21:13</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.43</v>
+        <v>4.02</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.95</v>
+        <v>4.18</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.26</v>
+        <v>3.6</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.02</v>
+        <v>5.48</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.18</v>
+        <v>3.77</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.64</v>
+        <v>4.05</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>7.33</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,38 +6745,38 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.73</v>
+        <v>3.45</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.98</v>
+        <v>3.31</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,24 +6784,24 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.09</v>
+        <v>2.21</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.93</v>
+        <v>2.21</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,11 +6852,11 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.01</v>
+        <v>2.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.25</v>
+        <v>2.58</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,11 +7036,11 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.68</v>
+        <v>3.01</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>06/10/2023 19:22</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>05/10/2023 11:56</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>06/10/2023 19:22</t>
-        </is>
-      </c>
       <c r="R73" t="n">
-        <v>2.21</v>
+        <v>3.09</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.21</v>
+        <v>2.93</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.33</v>
+        <v>4.55</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Avranches</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.81</v>
+        <v>4.41</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.54</v>
+        <v>4.35</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.41</v>
+        <v>2.81</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,650 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>GOAL FC</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>4</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:01</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>19/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45219.8125</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:11</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.16</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.41</v>
+        <v>2.06</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.01</v>
+        <v>3.75</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>4.16</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.06</v>
+        <v>4.41</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.42</v>
+        <v>3.12</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>2.01</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>1.89</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.92</v>
+        <v>3.03</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.69</v>
+        <v>4.41</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.07</v>
+        <v>3.38</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.38</v>
+        <v>3.01</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.56</v>
+        <v>3.14</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.38</v>
+        <v>3.07</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.35</v>
+        <v>2.64</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.78</v>
+        <v>1.63</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.67</v>
+        <v>1.38</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.86</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.78</v>
+        <v>5.38</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.3</v>
+        <v>8.35</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.38</v>
+        <v>3.67</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.12</v>
+        <v>2.86</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.44</v>
+        <v>2.96</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.89</v>
+        <v>2.3</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,63 +8125,63 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L84" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
         <v>1.89</v>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>11/10/2023 20:56</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>10/10/2023 12:20</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>11/10/2023 20:56</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>10/10/2023 12:20</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>11/10/2023 20:56</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,190 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45222.77083333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/rouen-avranches/MetedSLo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45222.8125</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:23</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/red-star-cholet/jyYBhpLA/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>4.16</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.36</v>
+        <v>4.41</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.71</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.27</v>
+        <v>2.01</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.16</v>
+        <v>1.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.41</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>3.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.01</v>
+        <v>3.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.41</v>
+        <v>2.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.38</v>
+        <v>3.07</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.44</v>
+        <v>1.63</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.01</v>
+        <v>1.38</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.14</v>
+        <v>3.56</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.07</v>
+        <v>5.38</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.64</v>
+        <v>8.35</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.38</v>
+        <v>3.67</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.56</v>
+        <v>2.86</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.38</v>
+        <v>2.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.35</v>
+        <v>2.3</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.67</v>
+        <v>4.38</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.86</v>
+        <v>3.12</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.83</v>
+        <v>2.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>4.38</v>
+        <v>1.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,15 +8148,15 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,15 +8164,15 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.52</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.89</v>
+        <v>4.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,98 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/red-star-cholet/jyYBhpLA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45224.79166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>4</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:50</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>25/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>25/10/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-orleans/4CiVc5KH/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.52</v>
+        <v>3.27</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>4.03</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.03</v>
+        <v>4.25</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.41</v>
+        <v>3.17</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.25</v>
+        <v>3.27</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,63 +1777,63 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.36</v>
+        <v>2.26</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.71</v>
+        <v>3.52</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.53</v>
+        <v>3.66</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.51</v>
+        <v>4.56</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>7.33</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,63 +6745,63 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
           <t>06/10/2023 19:22</t>
         </is>
       </c>
-      <c r="N69" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>05/10/2023 11:56</t>
-        </is>
-      </c>
-      <c r="P69" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>06/10/2023 19:22</t>
-        </is>
-      </c>
       <c r="R69" t="n">
-        <v>2.21</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.21</v>
+        <v>2.93</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,14 +6837,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.68</v>
+        <v>2.41</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,11 +6852,11 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>3.01</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.58</v>
+        <v>3.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,22 +7021,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.41</v>
+        <v>3.37</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,15 +7044,15 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7060,15 +7060,15 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.01</v>
+        <v>2.21</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.25</v>
+        <v>2.21</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.43</v>
+        <v>1.75</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.73</v>
+        <v>1.5</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.13</v>
+        <v>3.53</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.98</v>
+        <v>4.05</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.09</v>
+        <v>4.51</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.93</v>
+        <v>7.33</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.77</v>
+        <v>2.27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.66</v>
+        <v>3.21</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.64</v>
+        <v>2.92</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.56</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.55</v>
+        <v>3.16</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.41</v>
+        <v>2.81</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Avranches</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.81</v>
+        <v>4.41</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.54</v>
+        <v>4.35</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>3.67</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.38</v>
+        <v>2.78</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Orleans</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.44</v>
+        <v>2.23</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.01</v>
+        <v>1.89</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.03</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>3.42</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.64</v>
+        <v>4.41</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.63</v>
+        <v>2.83</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.38</v>
+        <v>4.38</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.56</v>
+        <v>3.12</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.38</v>
+        <v>2.52</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.35</v>
+        <v>1.89</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.78</v>
+        <v>1.63</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.67</v>
+        <v>1.38</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.86</v>
+        <v>3.56</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.78</v>
+        <v>5.38</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.3</v>
+        <v>8.35</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.38</v>
+        <v>3.01</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.52</v>
+        <v>3.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.41</v>
+        <v>2.69</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,650 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/sochaux-orleans/4CiVc5KH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>01/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45233.8125</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45233.82291666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>01/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:36</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>01/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:36</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>01/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:36</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/avranches-le-mans/Qgnf5N4G/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.27</v>
+        <v>3.52</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>4.03</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.25</v>
+        <v>4.03</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.27</v>
+        <v>4.25</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>4.16</v>
+        <v>1.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4.41</v>
+        <v>2.36</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>3.71</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.01</v>
+        <v>3.27</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>4.16</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.06</v>
+        <v>4.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.42</v>
+        <v>3.12</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>2.01</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1677,26 +1677,26 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1704,44 +1704,44 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.88</v>
+        <v>2.75</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>3.75</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.47</v>
+        <v>3.63</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.36</v>
+        <v>3.93</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>6.72</v>
+        <v>5.74</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.41</v>
+        <v>3.32</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:03</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.27</v>
+        <v>2.45</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.97</v>
+        <v>2.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.08</v>
+        <v>3.66</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.45</v>
+        <v>3.46</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.93</v>
+        <v>2.81</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.24</v>
+        <v>2.41</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.09</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.23</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:03</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.66</v>
+        <v>2.67</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.46</v>
+        <v>3.27</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.37</v>
+        <v>1.88</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.32</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>4.24</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.45</v>
+        <v>6.72</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.84</v>
+        <v>2.73</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.63</v>
+        <v>3.12</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.93</v>
+        <v>3.2</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>4.22</v>
+        <v>2.73</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>5.74</v>
+        <v>3.07</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.73</v>
+        <v>2.18</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.46</v>
+        <v>2.97</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.12</v>
+        <v>3.48</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.07</v>
+        <v>2.45</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.84</v>
+        <v>2.47</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.52</v>
+        <v>3.24</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.39</v>
+        <v>2.79</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.89</v>
+        <v>3.61</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.47</v>
+        <v>1.97</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.24</v>
+        <v>3.36</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.39</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.79</v>
+        <v>3.72</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -2965,30 +2965,30 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>1.84</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,31 +2996,31 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.32</v>
+        <v>3.52</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.83</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.34</v>
+        <v>4.39</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.46</v>
+        <v>5.89</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.6</v>
+        <v>2.18</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.95</v>
+        <v>3.27</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.28</v>
+        <v>3.24</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.98</v>
+        <v>3.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.36</v>
+        <v>2.87</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,15 +4392,15 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.26</v>
+        <v>3.75</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.87</v>
+        <v>3.28</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.36</v>
+        <v>3.95</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>2.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.75</v>
+        <v>4.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.28</v>
+        <v>4.36</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>2.83</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.06</v>
+        <v>2.69</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.27</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.28</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.3</v>
+        <v>2.43</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.94</v>
+        <v>2.95</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Red Star</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.83</v>
+        <v>1.79</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.69</v>
+        <v>2.06</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.27</v>
+        <v>3.49</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.43</v>
+        <v>4.3</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.95</v>
+        <v>3.94</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.39</v>
+        <v>3.12</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.5</v>
+        <v>3.57</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:27</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.99</v>
+        <v>3.22</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:25</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>2.36</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.22</v>
+        <v>2.2</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:27</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-villefranche/AqT8hV2K/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-martigues/WGCip7A0/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:24</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.99</v>
+        <v>3.74</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:28</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.19</v>
+        <v>5.31</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>6.1</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:09</t>
+          <t>22/09/2023 19:28</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-cholet/WhU4gBmE/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.42</v>
+        <v>3.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.05</v>
+        <v>3.17</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.93</v>
+        <v>2.96</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.44</v>
+        <v>2.25</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-le-mans/46SCikIQ/</t>
         </is>
       </c>
     </row>
@@ -5357,46 +5357,46 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Niort</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
       <c r="J54" t="n">
-        <v>3.16</v>
+        <v>2.39</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
@@ -5404,24 +5404,24 @@
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.37</v>
+        <v>3.09</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.92</v>
+        <v>3.22</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-villefranche/AqT8hV2K/</t>
         </is>
       </c>
     </row>
@@ -5449,30 +5449,30 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.83</v>
+        <v>2.42</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,15 +5480,15 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,15 +5496,15 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.25</v>
+        <v>3.44</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-le-mans/46SCikIQ/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>3.12</v>
+        <v>3.16</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.57</v>
+        <v>2.67</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:27</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:25</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:27</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-martigues/WGCip7A0/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Cholet</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:24</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.74</v>
+        <v>3.99</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:28</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.31</v>
+        <v>5.19</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>6.1</v>
+        <v>5.36</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:28</t>
+          <t>22/09/2023 19:09</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-cholet/WhU4gBmE/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,98 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/avranches-le-mans/Qgnf5N4G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45236.77083333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/niort-red-star/QgQOkr5T/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,30 +573,30 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.35</v>
+        <v>3.12</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -604,15 +604,15 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.41</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>2.9</v>
+        <v>3.21</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -620,15 +620,15 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.66</v>
+        <v>2.43</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-villefranche/W2P1zHOo/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
         </is>
       </c>
     </row>
@@ -1033,30 +1033,30 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.12</v>
+        <v>2.35</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1064,15 +1064,15 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1080,15 +1080,15 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.43</v>
+        <v>3.66</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-villefranche/W2P1zHOo/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>2.04</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.27</v>
+        <v>3.52</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.03</v>
+        <v>3.25</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>2.21</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.25</v>
+        <v>4.03</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.27</v>
+        <v>4.25</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.16</v>
+        <v>1.94</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.41</v>
+        <v>2.36</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.12</v>
+        <v>3.17</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>3.71</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.01</v>
+        <v>3.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>4.16</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.06</v>
+        <v>4.41</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.42</v>
+        <v>3.12</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.75</v>
+        <v>2.01</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1769,26 +1769,26 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1796,44 +1796,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>2.75</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.96</v>
+        <v>3.75</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Martigues</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.81</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.41</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.09</v>
+        <v>3.47</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>4.36</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:03</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.67</v>
+        <v>4.24</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.27</v>
+        <v>6.72</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88</v>
+        <v>2.81</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.49</v>
+        <v>2.41</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.47</v>
+        <v>3.09</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.36</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:03</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.24</v>
+        <v>2.67</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.72</v>
+        <v>3.27</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.25</v>
+        <v>1.97</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.34</v>
+        <v>3.72</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>2.49</v>
+        <v>3.16</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,32 +5304,32 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>22/09/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
           <t>22/09/2023 19:26</t>
         </is>
       </c>
-      <c r="R53" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>19/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>22/09/2023 19:26</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-nancy/Oj9qnTul/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
         </is>
       </c>
     </row>
@@ -5449,71 +5449,71 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.68</v>
+        <v>2.49</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.44</v>
+        <v>2.98</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-nancy/Oj9qnTul/</t>
         </is>
       </c>
     </row>
@@ -5541,46 +5541,46 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.16</v>
+        <v>1.63</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.67</v>
+        <v>1.69</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.17</v>
+        <v>3.99</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,24 +5588,24 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>5.19</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>5.36</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:09</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.63</v>
+        <v>2.68</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.99</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.7</v>
+        <v>2.93</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>5.19</v>
+        <v>2.84</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.36</v>
+        <v>3.44</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:09</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.68</v>
+        <v>2.21</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>3.37</v>
+        <v>2.68</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.31</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.21</v>
+        <v>2.68</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.21</v>
+        <v>2.58</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,63 +7757,63 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L80" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>11/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>10/10/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
         <v>1.89</v>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>11/10/2023 20:56</t>
         </is>
       </c>
-      <c r="N80" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>10/10/2023 12:20</t>
-        </is>
-      </c>
-      <c r="P80" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>11/10/2023 20:56</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>10/10/2023 12:20</t>
-        </is>
-      </c>
-      <c r="T80" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>11/10/2023 20:56</t>
-        </is>
-      </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,22 +7849,22 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.83</v>
+        <v>2.23</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>4.38</v>
+        <v>1.89</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,15 +7888,15 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.52</v>
+        <v>3.41</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.89</v>
+        <v>4.41</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.38</v>
+        <v>3.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.56</v>
+        <v>3.14</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.38</v>
+        <v>3.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>8.35</v>
+        <v>2.64</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.01</v>
+        <v>2.88</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.07</v>
+        <v>3.38</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.64</v>
+        <v>2.69</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.88</v>
+        <v>1.38</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.08</v>
+        <v>4.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.38</v>
+        <v>5.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.69</v>
+        <v>8.35</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,63 +9137,63 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:22</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.44</v>
+        <v>5.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.45</v>
+        <v>5.54</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.81</v>
+        <v>3.26</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
         </is>
       </c>
     </row>
@@ -9405,30 +9405,30 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,15 +9436,15 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,15 +9452,15 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.51</v>
+        <v>2.91</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.56</v>
+        <v>4.44</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.54</v>
+        <v>4.45</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,22 +9597,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.32</v>
+        <v>2.77</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,31 +9620,31 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:22</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
         </is>
       </c>
     </row>
@@ -9838,6 +9838,742 @@
       <c r="V102" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/niort-red-star/QgQOkr5T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>GOAL FC</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45240.8125</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>6</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,38 +6745,38 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,24 +6784,24 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.09</v>
+        <v>3.01</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.93</v>
+        <v>3.25</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,63 +6929,63 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>3.37</v>
+        <v>2.43</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
+          <t>06/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
           <t>06/10/2023 19:22</t>
         </is>
       </c>
-      <c r="N71" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>05/10/2023 11:56</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>06/10/2023 19:22</t>
-        </is>
-      </c>
       <c r="R71" t="n">
-        <v>2.21</v>
+        <v>3.09</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.21</v>
+        <v>2.93</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,63 +7021,63 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.68</v>
+        <v>2.21</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.67</v>
+        <v>2.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.78</v>
+        <v>3.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>2.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.38</v>
+        <v>3.01</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>3.07</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Versailles</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.42</v>
+        <v>4.9</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.41</v>
+        <v>5.38</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.41</v>
+        <v>8.35</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.01</v>
+        <v>3.67</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.31</v>
+        <v>2.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.88</v>
+        <v>4.38</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.38</v>
+        <v>2.52</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.69</v>
+        <v>1.89</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.38</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.35</v>
+        <v>4.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.52</v>
+        <v>2.42</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.86</v>
+        <v>2.22</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.1</v>
+        <v>2.94</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.52</v>
+        <v>1.75</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.17</v>
+        <v>3.43</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>2.96</v>
+        <v>3.34</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.79</v>
+        <v>5.18</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.98</v>
+        <v>5.27</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.21</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 17:40</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.19</v>
+        <v>3.16</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2.34</v>
+        <v>3.52</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.01</v>
+        <v>3.86</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.96</v>
+        <v>2.1</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>18/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>4</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Niort</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="K89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>18/10/2023 22:42</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>20/10/2023 19:01</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>18/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>20/10/2023 17:40</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>18/10/2023 22:42</t>
-        </is>
-      </c>
       <c r="T89" t="n">
-        <v>3.16</v>
+        <v>4.19</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.23</v>
+        <v>2.96</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.75</v>
+        <v>2.34</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.79</v>
+        <v>3.01</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.34</v>
+        <v>2.97</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.18</v>
+        <v>2.96</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.27</v>
+        <v>2.67</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,14 +9229,14 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>3.1</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.77</v>
+        <v>3.1</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.56</v>
+        <v>3.26</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.54</v>
+        <v>2.51</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
         </is>
       </c>
     </row>
@@ -9405,30 +9405,30 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.72</v>
+        <v>1.63</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.91</v>
+        <v>1.66</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,15 +9436,15 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>2.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,15 +9452,15 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.88</v>
+        <v>5.56</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.91</v>
+        <v>5.54</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.93</v>
+        <v>2.91</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.44</v>
+        <v>2.88</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.45</v>
+        <v>2.91</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.77</v>
+        <v>1.73</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.97</v>
+        <v>3.65</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.81</v>
+        <v>4.44</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.44</v>
+        <v>4.45</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.61</v>
+        <v>2.35</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.97</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>5.68</v>
+        <v>3.72</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>5.75</v>
+        <v>3.69</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,163 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45243.875</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
         <v>2.16</v>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:21</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:21</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:21</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-chateauroux/fVTO8HS5/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,30 +573,30 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3.12</v>
+        <v>2.35</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -604,15 +604,15 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.21</v>
+        <v>2.9</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -620,15 +620,15 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.4</v>
+        <v>3.52</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>2.43</v>
+        <v>3.66</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-villefranche/W2P1zHOo/</t>
         </is>
       </c>
     </row>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:23</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>11/08/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:23</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>3.37</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>11/08/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>10/08/2023 18:23</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>11/08/2023 19:07</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>10/08/2023 18:23</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>11/08/2023 19:07</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>10/08/2023 18:23</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>1.93</v>
+        <v>3.07</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>11/08/2023 19:07</t>
+          <t>11/08/2023 19:28</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-avranches/Umr5Zzvh/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>2.48</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.47</v>
+        <v>3.09</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.18</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.83</v>
+        <v>2.92</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>07/08/2023 17:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.83</v>
+        <v>3.66</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:27</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-chateauroux/hjZPUChN/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Chateauroux</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.19</v>
+        <v>3.12</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.09</v>
+        <v>3.41</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.66</v>
+        <v>2.43</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>11/08/2023 19:27</t>
+          <t>11/08/2023 19:21</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-chateauroux/hjZPUChN/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-le-mans/21tDXE84/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.16</v>
+        <v>3.37</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.37</v>
+        <v>4.25</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.22</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.07</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:28</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-avranches/Umr5Zzvh/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.52</v>
+        <v>3.83</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>07/08/2023 17:12</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.66</v>
+        <v>3.83</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:21</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-villefranche/W2P1zHOo/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,32 +1256,32 @@
         </is>
       </c>
       <c r="P9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>18/08/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>18/08/2023 19:22</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:40</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>3.96</v>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.04</v>
+        <v>2.21</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.26</v>
+        <v>1.97</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.52</v>
+        <v>3.27</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>4.03</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.27</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.03</v>
+        <v>4.25</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.93</v>
+        <v>2.36</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.41</v>
+        <v>3.17</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.25</v>
+        <v>3.27</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.94</v>
+        <v>4.16</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.36</v>
+        <v>4.41</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.71</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.27</v>
+        <v>2.01</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4.16</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.41</v>
+        <v>2.06</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.01</v>
+        <v>3.75</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1769,26 +1769,26 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1796,44 +1796,44 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
         <v>3.25</v>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:39</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>3.42</v>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.75</v>
+        <v>3.88</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.96</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.84</v>
+        <v>2.73</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.61</v>
+        <v>2.46</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.63</v>
+        <v>3.12</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.93</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.22</v>
+        <v>2.73</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.74</v>
+        <v>3.07</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.37</v>
+        <v>1.84</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.32</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.38</v>
+        <v>3.63</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>2.99</v>
+        <v>3.93</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>4.22</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.45</v>
+        <v>5.74</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.24</v>
+        <v>2.97</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.66</v>
+        <v>3.08</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.46</v>
+        <v>2.45</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>2.24</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.47</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.36</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>4.24</v>
+        <v>3.66</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.72</v>
+        <v>3.46</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-le-mans/EJO7TNTi/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.73</v>
+        <v>3.37</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.46</v>
+        <v>3.32</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.12</v>
+        <v>3.38</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.73</v>
+        <v>2.08</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.07</v>
+        <v>2.45</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.97</v>
+        <v>1.49</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.48</v>
+        <v>3.47</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.34</v>
+        <v>4.36</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.08</v>
+        <v>4.24</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.45</v>
+        <v>6.72</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-villefranche/2uekBtEN/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.47</v>
+        <v>1.84</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.79</v>
+        <v>4.39</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.61</v>
+        <v>5.89</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.22</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.34</v>
+        <v>2.79</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.46</v>
+        <v>3.61</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.05</v>
+        <v>3.18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.72</v>
+        <v>3.86</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -2965,30 +2965,30 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.84</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,40 +2996,40 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.52</v>
+        <v>3.32</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.83</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>01/09/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>28/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>01/09/2023 19:23</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>30/08/2023 16:42</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>01/09/2023 19:23</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.44</v>
+        <v>3.36</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.18</v>
+        <v>2.34</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,14 +3433,14 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.17</v>
+        <v>3.86</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.19</v>
+        <v>3.54</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 18:55</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.12</v>
+        <v>5.11</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.06</v>
+        <v>3.57</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.67</v>
+        <v>2.74</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:19</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.79</v>
+        <v>3.67</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:28</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.87</v>
+        <v>2.48</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="N35" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>05/09/2023 22:11</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>08/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>3.12</v>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>05/09/2023 22:11</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>08/09/2023 19:20</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>05/09/2023 22:11</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>2.2</v>
+        <v>3.06</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,11 +3724,11 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.78</v>
+        <v>3.87</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:20</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:19</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.67</v>
+        <v>2.53</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.07</v>
+        <v>2.67</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.86</v>
+        <v>3.22</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.54</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.11</v>
+        <v>3.79</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.57</v>
+        <v>2.98</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:28</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-chateauroux/6g1rJUB1/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.27</v>
+        <v>3.36</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.24</v>
+        <v>2.99</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.26</v>
+        <v>3.75</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>10/09/2023 13:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.87</v>
+        <v>3.28</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
         </is>
       </c>
     </row>
@@ -4345,30 +4345,30 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4376,15 +4376,15 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.36</v>
+        <v>3.27</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2.99</v>
+        <v>3.24</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,15 +4392,15 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.75</v>
+        <v>3.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>10/09/2023 13:12</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.28</v>
+        <v>2.87</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-versailles/ppMHXTQf/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.98</v>
+        <v>5.48</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.36</v>
+        <v>3.77</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Red Star</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.83</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.69</v>
+        <v>2.06</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.27</v>
+        <v>3.49</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.43</v>
+        <v>4.3</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.95</v>
+        <v>3.94</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>15/09/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>12/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>15/09/2023 19:21</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>12/09/2023 12:42</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>15/09/2023 19:21</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>12/09/2023 12:42</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>3.94</v>
+        <v>4.18</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,63 +4721,63 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>2.83</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.99</v>
+        <v>2.69</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.02</v>
+        <v>2.43</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.18</v>
+        <v>2.95</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-nimes/2LWCY9Bl/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-red-star/bmQLWmt1/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>5.48</v>
+        <v>4.98</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.77</v>
+        <v>4.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>3.12</v>
+        <v>2.39</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.57</v>
+        <v>2.5</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>22/09/2023 19:27</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="P50" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>15/09/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
         <v>3.22</v>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>22/09/2023 19:25</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>19/09/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>22/09/2023 19:27</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-martigues/WGCip7A0/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-villefranche/AqT8hV2K/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Cholet</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:24</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.74</v>
+        <v>3.99</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.59</v>
+        <v>3.7</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:28</t>
+          <t>22/09/2023 19:22</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>5.31</v>
+        <v>5.19</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>15/09/2023 20:43</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>6.1</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>22/09/2023 19:28</t>
+          <t>22/09/2023 19:09</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-cholet/WhU4gBmE/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
         </is>
       </c>
     </row>
@@ -5173,30 +5173,30 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.83</v>
+        <v>2.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -5204,15 +5204,15 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2.96</v>
+        <v>2.93</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
@@ -5220,15 +5220,15 @@
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>16/09/2023 04:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.25</v>
+        <v>3.44</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-le-mans/46SCikIQ/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>3.16</v>
+        <v>2.49</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.24</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.06</v>
+        <v>3.1</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.37</v>
+        <v>2.78</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-nancy/Oj9qnTul/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>2.39</v>
+        <v>3.16</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
+          <t>22/09/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
           <t>22/09/2023 19:22</t>
         </is>
       </c>
-      <c r="N54" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>15/09/2023 20:43</t>
-        </is>
-      </c>
-      <c r="P54" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>22/09/2023 19:22</t>
-        </is>
-      </c>
       <c r="R54" t="n">
-        <v>3.09</v>
+        <v>2.37</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.22</v>
+        <v>2.92</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:26</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-villefranche/AqT8hV2K/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-niort/tSJvm9Qs/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.6</v>
+        <v>3.83</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.24</v>
+        <v>3.17</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.98</v>
+        <v>2.25</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>22/09/2023 19:26</t>
+          <t>22/09/2023 19:21</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-nancy/Oj9qnTul/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-le-mans/46SCikIQ/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>3.12</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.69</v>
+        <v>3.57</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:27</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.99</v>
+        <v>3.24</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.7</v>
+        <v>3.22</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:22</t>
+          <t>22/09/2023 19:25</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>5.19</v>
+        <v>2.36</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>15/09/2023 20:43</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>5.36</v>
+        <v>2.2</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>22/09/2023 19:09</t>
+          <t>22/09/2023 19:27</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-avranches/2s8momef/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-martigues/WGCip7A0/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.68</v>
+        <v>1.6</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.42</v>
+        <v>1.65</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:24</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.05</v>
+        <v>3.74</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2.93</v>
+        <v>3.59</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:28</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.84</v>
+        <v>5.31</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>16/09/2023 04:42</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.44</v>
+        <v>6.1</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>22/09/2023 19:21</t>
+          <t>22/09/2023 19:28</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-chateauroux/A7BeqRP6/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-cholet/WhU4gBmE/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Nimes</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:22</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.05</v>
+        <v>3.37</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/09/2023 10:41</t>
+          <t>29/09/2023 18:35</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.43</v>
+        <v>3.99</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.09</v>
+        <v>3.67</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:22</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-orleans/ptnUC87I/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 10:41</t>
         </is>
       </c>
       <c r="R60" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
         <v>3.09</v>
       </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>26/09/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T60" t="n">
-        <v>4.09</v>
-      </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.19</v>
+        <v>3.03</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.27</v>
+        <v>3.09</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.79</v>
+        <v>4.09</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Versailles</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>2</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.28</v>
+        <v>3.19</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.23</v>
+        <v>3.27</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.06</v>
+        <v>3.79</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-versailles/figHFANa/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.46</v>
+        <v>2.19</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>2.56</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:13</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.77</v>
+        <v>3.23</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.52</v>
+        <v>3.06</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-versailles/figHFANa/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>29/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>29/09/2023 19:27</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>26/09/2023 13:12</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q64" t="inlineStr">
+      <c r="R64" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U64" t="inlineStr">
         <is>
           <t>29/09/2023 19:27</t>
         </is>
       </c>
-      <c r="R64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>26/09/2023 13:12</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>29/09/2023 19:27</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:22</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.37</v>
+        <v>3.01</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/09/2023 18:35</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.99</v>
+        <v>3.5</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.67</v>
+        <v>3.81</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:22</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-orleans/ptnUC87I/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.64</v>
+        <v>4.05</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.56</v>
+        <v>4.51</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>7.33</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,22 +6745,22 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.41</v>
+        <v>3.37</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,15 +6768,15 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,15 +6784,15 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.01</v>
+        <v>2.21</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.25</v>
+        <v>2.21</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,48 +6944,48 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="N71" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>04/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06/10/2023 19:20</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>3.13</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>04/10/2023 18:42</t>
         </is>
       </c>
-      <c r="P71" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>06/10/2023 19:22</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:42</t>
-        </is>
-      </c>
       <c r="T71" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -7021,22 +7021,22 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>3.37</v>
+        <v>2.41</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -7044,15 +7044,15 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
@@ -7060,15 +7060,15 @@
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.21</v>
+        <v>3.01</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.21</v>
+        <v>3.25</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.75</v>
+        <v>2.43</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.53</v>
+        <v>3.13</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.05</v>
+        <v>2.98</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.51</v>
+        <v>3.09</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>7.33</v>
+        <v>2.93</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.68</v>
+        <v>1.77</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.1</v>
+        <v>3.66</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.91</v>
+        <v>3.64</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.68</v>
+        <v>4.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.58</v>
+        <v>4.55</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>1.89</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.92</v>
+        <v>3.03</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.69</v>
+        <v>4.41</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.01</v>
+        <v>4.38</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.07</v>
+        <v>2.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.64</v>
+        <v>1.89</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.38</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.56</v>
+        <v>2.86</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.38</v>
+        <v>2.78</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.35</v>
+        <v>2.3</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.78</v>
+        <v>2.44</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.67</v>
+        <v>3.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.86</v>
+        <v>3.14</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.78</v>
+        <v>3.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.83</v>
+        <v>2.31</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.38</v>
+        <v>2.88</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.12</v>
+        <v>2.92</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.44</v>
+        <v>3.08</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.52</v>
+        <v>3.38</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.89</v>
+        <v>2.69</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Versailles</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>4.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.41</v>
+        <v>5.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.41</v>
+        <v>8.35</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.94</v>
+        <v>5.18</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.5</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>1.75</v>
+        <v>3.52</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.79</v>
+        <v>3.86</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.43</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.18</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.27</v>
+        <v>2.08</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>20/10/2023 17:40</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.87</v>
+        <v>2.79</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.16</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,30 +8493,30 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
         <v>2</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.52</v>
-      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.86</v>
+        <v>2.03</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.2</v>
+        <v>3.27</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.28</v>
+        <v>3.17</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.08</v>
+        <v>4.19</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,11 +8600,11 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.03</v>
+        <v>3.01</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.17</v>
+        <v>2.97</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.19</v>
+        <v>2.67</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.17</v>
+        <v>3.21</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 17:40</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.79</v>
+        <v>2.87</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.01</v>
+        <v>2.22</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>2.97</v>
+        <v>3.23</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,63 +9137,63 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:22</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.26</v>
+        <v>4.44</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.51</v>
+        <v>4.45</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -9413,14 +9413,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.63</v>
+        <v>2.3</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.66</v>
+        <v>3.1</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.77</v>
+        <v>3.1</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.76</v>
+        <v>3.1</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.56</v>
+        <v>3.26</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>5.54</v>
+        <v>2.51</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
         </is>
       </c>
     </row>
@@ -9497,30 +9497,30 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>2.72</v>
+        <v>1.63</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.91</v>
+        <v>1.66</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,15 +9528,15 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,15 +9544,15 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.88</v>
+        <v>5.56</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.91</v>
+        <v>5.54</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.73</v>
+        <v>2.32</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.93</v>
+        <v>2.74</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.65</v>
+        <v>3.21</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:22</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.44</v>
+        <v>3.21</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.45</v>
+        <v>2.86</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.73</v>
+        <v>1.53</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,48 +9980,48 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.53</v>
+        <v>1.61</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
           <t>10/11/2023 19:29</t>
         </is>
       </c>
-      <c r="N104" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:27</t>
-        </is>
-      </c>
-      <c r="R104" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T104" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:29</t>
-        </is>
-      </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>2.45</v>
+        <v>2.01</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2.93</v>
+        <v>3.38</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:26</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.08</v>
+        <v>3.87</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.81</v>
+        <v>4.76</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
       <c r="J106" t="n">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.33</v>
+        <v>4.36</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.29</v>
+        <v>4.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.22</v>
+        <v>7.17</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.94</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.23</v>
+        <v>1.93</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.57</v>
+        <v>1.85</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.18</v>
+        <v>4.22</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.03</v>
+        <v>4.94</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,14 +10333,14 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>1.45</v>
+        <v>2.45</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.39</v>
+        <v>2.27</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>4.36</v>
+        <v>3.11</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4.5</v>
+        <v>2.93</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:26</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>7.17</v>
+        <v>3.08</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>9.109999999999999</v>
+        <v>3.81</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.01</v>
+        <v>2.73</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.85</v>
+        <v>2.53</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.87</v>
+        <v>2.67</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.76</v>
+        <v>2.96</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Cholet</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.61</v>
+        <v>2.57</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.97</v>
+        <v>3.3</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.92</v>
+        <v>3.08</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>5.68</v>
+        <v>2.18</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>5.75</v>
+        <v>3.03</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,558 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/le-mans-chateauroux/fVTO8HS5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:15</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>2</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>20/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>20/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>20/11/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45254.8125</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:24</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:04</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:24</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.18</v>
+        <v>2.05</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.86</v>
+        <v>3.72</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.48</v>
+        <v>3.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>3.18</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -3000,36 +3000,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.34</v>
+        <v>3.86</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.46</v>
+        <v>2.48</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.97</v>
+        <v>2.25</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/09/2023 10:41</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.43</v>
+        <v>3.5</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.09</v>
+        <v>3.81</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:13</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.03</v>
+        <v>3.29</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.09</v>
+        <v>2.77</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.09</v>
+        <v>2.52</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
         <v>2</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
       <c r="J62" t="n">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.12</v>
+        <v>2.56</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 18:43</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:14</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-versailles/figHFANa/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.28</v>
+        <v>3.46</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 10:41</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.23</v>
+        <v>4.43</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>22/09/2023 18:43</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:14</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-versailles/figHFANa/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:13</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.29</v>
+        <v>3.03</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.77</v>
+        <v>3.09</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.52</v>
+        <v>4.09</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Avranches</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.81</v>
+        <v>4.41</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.54</v>
+        <v>4.35</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.41</v>
+        <v>2.81</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.41</v>
+        <v>2.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.38</v>
+        <v>3.01</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>3.07</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>2.78</v>
+        <v>1.63</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.67</v>
+        <v>1.38</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.86</v>
+        <v>3.56</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.78</v>
+        <v>5.38</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.3</v>
+        <v>8.35</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.01</v>
+        <v>3.67</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,63 +8033,63 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.31</v>
+        <v>2.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.88</v>
+        <v>4.38</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2.92</v>
+        <v>3.12</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.38</v>
+        <v>2.52</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.69</v>
+        <v>1.89</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.38</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.35</v>
+        <v>4.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>1.75</v>
+        <v>2.42</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.79</v>
+        <v>2.22</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.43</v>
+        <v>3.15</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.18</v>
+        <v>2.94</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.27</v>
+        <v>3.5</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3.52</v>
+        <v>2.44</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.86</v>
+        <v>2.5</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 17:40</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.08</v>
+        <v>3.16</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P87" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>2.96</v>
       </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>20/10/2023 19:28</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.79</v>
-      </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>2.67</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4</v>
+        <v>5.18</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.19</v>
+        <v>5.27</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.01</v>
+        <v>2.7</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.44</v>
+        <v>3.52</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>20/10/2023 17:40</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.22</v>
+        <v>2.03</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.94</v>
+        <v>4</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.5</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,63 +9137,63 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.95</v>
+        <v>3.21</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.81</v>
+        <v>3.04</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:22</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.88</v>
+        <v>3.21</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.91</v>
+        <v>2.86</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.44</v>
+        <v>5.56</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.45</v>
+        <v>5.54</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.77</v>
+        <v>2.3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.81</v>
+        <v>3.26</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.26</v>
+        <v>4.44</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.51</v>
+        <v>4.45</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9497,30 +9497,30 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>1.63</v>
+        <v>2.72</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.66</v>
+        <v>2.91</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,15 +9528,15 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.76</v>
+        <v>2.81</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,15 +9544,15 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.56</v>
+        <v>2.88</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.54</v>
+        <v>2.91</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,22 +9597,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.32</v>
+        <v>2.77</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,31 +9620,31 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.21</v>
+        <v>2.97</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>03/11/2023 19:22</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.86</v>
+        <v>2.44</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>2.16</v>
+        <v>2.01</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.87</v>
+        <v>3.38</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.69</v>
+        <v>4.76</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.61</v>
+        <v>2.35</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.97</v>
+        <v>3.09</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>5.68</v>
+        <v>3.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>5.75</v>
+        <v>3.69</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.35</v>
+        <v>3.97</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.38</v>
+        <v>3.92</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.87</v>
+        <v>5.68</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.76</v>
+        <v>5.75</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.85</v>
+        <v>2.53</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,32 +10272,32 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>10/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>10/11/2023 19:29</t>
         </is>
       </c>
-      <c r="R107" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T107" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:29</t>
-        </is>
-      </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
         </is>
       </c>
     </row>
@@ -10325,30 +10325,30 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,31 +10356,31 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.11</v>
+        <v>3.33</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>10/11/2023 19:26</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.08</v>
+        <v>4.22</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.81</v>
+        <v>4.94</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
         </is>
       </c>
     </row>
@@ -10417,30 +10417,30 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.53</v>
+        <v>2.27</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,31 +10448,31 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:26</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.67</v>
+        <v>3.08</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.96</v>
+        <v>3.81</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:15</t>
+          <t>24/11/2023 19:04</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,155 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:15</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>17/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>24/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
           <t>19/11/2023 23:12</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>24/11/2023 19:24</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O117" t="inlineStr">
+      <c r="L118" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O118" t="inlineStr">
         <is>
           <t>19/11/2023 23:12</t>
         </is>
       </c>
-      <c r="P117" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>24/11/2023 19:04</t>
-        </is>
-      </c>
-      <c r="R117" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S117" t="inlineStr">
+      <c r="P118" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S118" t="inlineStr">
         <is>
           <t>19/11/2023 23:12</t>
         </is>
       </c>
-      <c r="T117" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>24/11/2023 19:24</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
+      <c r="T118" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/versailles-epinal/EZ0kPxDn/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V118"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.09</v>
+        <v>3.97</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.87</v>
+        <v>3.92</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.72</v>
+        <v>5.68</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.69</v>
+        <v>5.75</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.61</v>
+        <v>2.35</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.97</v>
+        <v>3.09</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.68</v>
+        <v>3.72</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.75</v>
+        <v>3.69</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -10233,30 +10233,30 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.53</v>
+        <v>2.27</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,31 +10264,31 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:26</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.67</v>
+        <v>3.08</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.96</v>
+        <v>3.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
         </is>
       </c>
     </row>
@@ -10417,30 +10417,30 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.45</v>
+        <v>2.73</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.27</v>
+        <v>2.53</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,31 +10448,31 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>2.93</v>
+        <v>3.22</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:26</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.08</v>
+        <v>2.67</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.81</v>
+        <v>2.96</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Le Mans</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.61</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.04</v>
+        <v>3.37</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:04</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.01</v>
+        <v>4.73</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.85</v>
+        <v>4.34</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.97</v>
+        <v>2.21</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.73</v>
+        <v>2.01</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>3.51</v>
+        <v>2.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>4.34</v>
+        <v>3.02</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.21</v>
+        <v>3.21</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.2</v>
+        <v>3.01</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.02</v>
+        <v>3.86</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.18</v>
+        <v>2.88</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>3.01</v>
+        <v>2.32</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.86</v>
+        <v>3.16</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:15</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.59</v>
+        <v>3.27</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:15</t>
+          <t>24/11/2023 19:04</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
         </is>
       </c>
     </row>
@@ -11310,6 +11310,98 @@
       <c r="V118" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/versailles-epinal/EZ0kPxDn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45257.77083333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>4</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>20/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>20/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>20/11/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/niort-sochaux/AVsphzld/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,34 +2965,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -3000,36 +3000,36 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.48</v>
+        <v>3.46</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.06</v>
+        <v>3.18</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.55</v>
+        <v>3.32</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.34</v>
+        <v>3.06</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.59</v>
+        <v>3.86</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.85</v>
+        <v>2.48</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-epinal/OhEiTEZ8/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.25</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.34</v>
+        <v>4.59</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-epinal/OhEiTEZ8/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Nimes</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/09/2023 10:41</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.43</v>
+        <v>3.27</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.09</v>
+        <v>3.79</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>2</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.19</v>
+        <v>3.46</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 10:41</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.27</v>
+        <v>4.43</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.79</v>
+        <v>3.09</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>2.44</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.35</v>
+        <v>3.54</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.41</v>
+        <v>2.81</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>06/10/2023 06:22</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.35</v>
+        <v>3.54</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 19:21</t>
+          <t>07/10/2023 19:24</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>3</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Avranches</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.44</v>
+        <v>1.88</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.54</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.81</v>
+        <v>4.41</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>06/10/2023 06:22</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.54</v>
+        <v>4.35</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 19:24</t>
+          <t>07/10/2023 19:21</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-avranches/4CD0DpK4/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-cholet/tOqiSm75/</t>
         </is>
       </c>
     </row>
@@ -7473,42 +7473,42 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.17</v>
+        <v>2.29</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/10/2023 19:26</t>
+          <t>11/10/2023 19:25</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.38</v>
+        <v>3.34</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-martigues/6VjnxPzU/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-rouen/GtbZvRjB/</t>
         </is>
       </c>
     </row>
@@ -7565,42 +7565,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Rouen</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
       <c r="J78" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.29</v>
+        <v>3.17</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/10/2023 19:25</t>
+          <t>11/10/2023 19:26</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.34</v>
+        <v>2.38</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-rouen/GtbZvRjB/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-martigues/6VjnxPzU/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>3.01</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.38</v>
+        <v>3.07</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.69</v>
+        <v>2.64</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.44</v>
+        <v>1.63</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>3.01</v>
+        <v>1.38</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.56</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.07</v>
+        <v>5.38</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.64</v>
+        <v>8.35</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.38</v>
+        <v>3.67</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.56</v>
+        <v>2.86</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.9</v>
+        <v>2.96</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>5.38</v>
+        <v>2.78</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>8.35</v>
+        <v>2.3</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>3.67</v>
+        <v>4.38</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.86</v>
+        <v>3.12</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.96</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,22 +8033,22 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.83</v>
+        <v>2.23</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>4.38</v>
+        <v>1.89</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -8056,15 +8056,15 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.12</v>
+        <v>3.03</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,15 +8072,15 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.52</v>
+        <v>3.41</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.89</v>
+        <v>4.41</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.23</v>
+        <v>2.31</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.03</v>
+        <v>2.92</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.41</v>
+        <v>2.69</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>2.44</v>
+        <v>3.52</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 17:40</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.01</v>
+        <v>2.7</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>5.18</v>
+        <v>4</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.27</v>
+        <v>4.19</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P89" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
         <v>2.96</v>
       </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>20/10/2023 19:28</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>2.79</v>
-      </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.98</v>
+        <v>2.67</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>3.52</v>
+        <v>2.44</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.86</v>
+        <v>2.5</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 17:40</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.08</v>
+        <v>3.16</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4</v>
+        <v>5.18</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.19</v>
+        <v>5.27</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,63 +9137,63 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.21</v>
+        <v>2.95</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.04</v>
+        <v>2.81</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:22</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.21</v>
+        <v>2.88</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.86</v>
+        <v>2.91</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:29</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>3</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.77</v>
+        <v>3.65</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.56</v>
+        <v>4.44</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.54</v>
+        <v>4.45</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.3</v>
+        <v>2.77</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:29</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.44</v>
+        <v>3.26</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>4.45</v>
+        <v>2.51</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-sochaux/x4UxfdJq/</t>
         </is>
       </c>
     </row>
@@ -9497,30 +9497,30 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>2.72</v>
+        <v>1.63</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.91</v>
+        <v>1.66</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,15 +9528,15 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.81</v>
+        <v>3.76</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,15 +9544,15 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.88</v>
+        <v>5.56</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.91</v>
+        <v>5.54</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-epinal/4vbo7qz4/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,22 +9597,22 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.77</v>
+        <v>2.32</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.35</v>
+        <v>2.74</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,40 +9620,40 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>2.97</v>
+        <v>3.21</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>03/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
           <t>03/11/2023 19:29</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>01/11/2023 22:42</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>03/11/2023 19:29</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-orleans/z5gs8PKc/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-martigues/f9GfpMSj/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.01</v>
+        <v>3.23</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.85</v>
+        <v>2.57</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.38</v>
+        <v>3.08</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.87</v>
+        <v>2.18</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.76</v>
+        <v>3.03</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.61</v>
+        <v>2.35</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.97</v>
+        <v>3.09</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.92</v>
+        <v>2.87</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>5.68</v>
+        <v>3.72</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>5.75</v>
+        <v>3.69</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.09</v>
+        <v>3.97</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>2.87</v>
+        <v>3.92</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.72</v>
+        <v>5.68</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.69</v>
+        <v>5.75</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.45</v>
+        <v>2.01</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.39</v>
+        <v>1.85</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>4.36</v>
+        <v>3.35</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4.5</v>
+        <v>3.38</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>7.17</v>
+        <v>3.87</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>9.109999999999999</v>
+        <v>4.76</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
         </is>
       </c>
     </row>
@@ -10233,30 +10233,30 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,31 +10264,31 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.11</v>
+        <v>3.33</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>10/11/2023 19:26</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.08</v>
+        <v>4.22</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.81</v>
+        <v>4.94</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
         </is>
       </c>
     </row>
@@ -10325,30 +10325,30 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>2.45</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,40 +10356,40 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.33</v>
+        <v>3.11</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.29</v>
+        <v>2.93</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>10/11/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
           <t>10/11/2023 19:29</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:29</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>1</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Dijon</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>2</v>
-      </c>
       <c r="J110" t="n">
-        <v>3.23</v>
+        <v>1.45</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.57</v>
+        <v>1.39</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.3</v>
+        <v>4.36</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.08</v>
+        <v>4.5</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.18</v>
+        <v>7.17</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.03</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.97</v>
+        <v>2.33</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.85</v>
+        <v>2.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.38</v>
+        <v>3.23</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.37</v>
+        <v>3.04</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:04</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.97</v>
+        <v>3.17</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.73</v>
+        <v>3.01</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>3.51</v>
+        <v>1.97</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>4.34</v>
+        <v>1.85</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>2.21</v>
+        <v>3.97</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>2.01</v>
+        <v>4.73</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.2</v>
+        <v>3.51</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>3.02</v>
+        <v>4.34</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.28</v>
+        <v>3.16</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.18</v>
+        <v>3.15</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.21</v>
+        <v>2.21</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Rouen</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
       <c r="J115" t="n">
-        <v>3.01</v>
+        <v>2.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.86</v>
+        <v>3.02</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>2.84</v>
+        <v>3.28</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.59</v>
+        <v>3.21</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.28</v>
+        <v>2.51</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.32</v>
+        <v>3.01</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.16</v>
+        <v>3.86</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:15</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.27</v>
+        <v>2.59</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.76</v>
+        <v>2.28</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J117" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.61</v>
+        <v>3.16</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.23</v>
+        <v>3.15</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.04</v>
+        <v>2.74</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:04</t>
+          <t>24/11/2023 19:15</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.01</v>
+        <v>2.76</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
         </is>
       </c>
     </row>
@@ -11402,6 +11402,466 @@
       <c r="V119" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/niort-sochaux/AVsphzld/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-nancy/hbwMP93c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>27/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/rouen-cholet/Qioz26Bj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/avranches-villefranche/tKVYM7mG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>4</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/epinal-chateauroux/ncWUNmY9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45261.8125</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>4</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-marignane/CzMSGJQd/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V124"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.19</v>
+        <v>3.03</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.22</v>
+        <v>3.06</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.27</v>
+        <v>3.09</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.79</v>
+        <v>4.09</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.03</v>
+        <v>3.46</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 10:41</t>
         </is>
       </c>
       <c r="R64" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>26/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
         <v>3.09</v>
       </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>26/09/2023 13:13</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>4.09</v>
-      </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Nimes</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.55</v>
+        <v>2.12</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/09/2023 10:41</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.43</v>
+        <v>3.27</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.09</v>
+        <v>3.79</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.75</v>
+        <v>2.41</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.53</v>
+        <v>3.1</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.05</v>
+        <v>3.05</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.51</v>
+        <v>3.01</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>7.33</v>
+        <v>3.25</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.37</v>
+        <v>1.75</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.45</v>
+        <v>1.5</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.11</v>
+        <v>3.53</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.31</v>
+        <v>4.05</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.21</v>
+        <v>4.51</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.21</v>
+        <v>7.33</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,63 +6837,63 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.68</v>
+        <v>3.37</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2.91</v>
+        <v>3.31</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.68</v>
+        <v>2.21</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.41</v>
+        <v>2.27</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
         </is>
       </c>
     </row>
@@ -7473,42 +7473,42 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Rouen</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
       <c r="J77" t="n">
-        <v>2.19</v>
+        <v>2.64</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.29</v>
+        <v>3.17</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>11/10/2023 19:25</t>
+          <t>11/10/2023 19:26</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -7520,15 +7520,15 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>08/10/2023 10:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.34</v>
+        <v>2.38</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-rouen/GtbZvRjB/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-martigues/6VjnxPzU/</t>
         </is>
       </c>
     </row>
@@ -7565,42 +7565,42 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>2.64</v>
+        <v>2.19</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.17</v>
+        <v>2.29</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>11/10/2023 19:26</t>
+          <t>11/10/2023 19:25</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -7612,15 +7612,15 @@
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>08/10/2023 10:42</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.38</v>
+        <v>3.34</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-martigues/6VjnxPzU/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-rouen/GtbZvRjB/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.01</v>
+        <v>3.67</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.14</v>
+        <v>2.86</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.07</v>
+        <v>2.78</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>1.63</v>
+        <v>2.83</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.38</v>
+        <v>4.38</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.56</v>
+        <v>3.12</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.9</v>
+        <v>3.44</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.38</v>
+        <v>2.52</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>8.35</v>
+        <v>1.89</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,14 +7849,14 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>3.67</v>
+        <v>1.89</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>2.86</v>
+        <v>3.03</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>2.96</v>
+        <v>3.42</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.78</v>
+        <v>3.41</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.3</v>
+        <v>4.41</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,63 +7941,63 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.83</v>
+        <v>2.31</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>4.38</v>
+        <v>2.88</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.12</v>
+        <v>2.92</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.44</v>
+        <v>3.08</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.52</v>
+        <v>3.38</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>10/10/2023 12:12</t>
+          <t>10/10/2023 12:20</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>1.89</v>
+        <v>2.69</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Versailles</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.23</v>
+        <v>2.44</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.89</v>
+        <v>3.01</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.42</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>10/10/2023 12:20</t>
+          <t>10/10/2023 12:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.41</v>
+        <v>2.64</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.31</v>
+        <v>1.63</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.88</v>
+        <v>1.38</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.92</v>
+        <v>3.56</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.08</v>
+        <v>4.9</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.38</v>
+        <v>5.38</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.69</v>
+        <v>8.35</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.23</v>
+        <v>2.16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.18</v>
+        <v>3.72</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.03</v>
+        <v>3.69</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.09</v>
+        <v>3.97</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2.87</v>
+        <v>3.92</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.72</v>
+        <v>5.68</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>3.69</v>
+        <v>5.75</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,63 +10057,63 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.97</v>
+        <v>4.36</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.92</v>
+        <v>4.5</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.68</v>
+        <v>7.17</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.75</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>2</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Marignane</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>1.45</v>
+        <v>3.23</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.39</v>
+        <v>2.57</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>4.36</v>
+        <v>3.3</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.5</v>
+        <v>3.08</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>7.17</v>
+        <v>2.18</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>9.109999999999999</v>
+        <v>3.03</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-dijon/tnWz6FCO/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Le Mans</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.61</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.23</v>
+        <v>3.38</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.04</v>
+        <v>3.37</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:04</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.17</v>
+        <v>3.97</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.01</v>
+        <v>4.73</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>24/11/2023 19:24</t>
+          <t>24/11/2023 19:29</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I113" t="n">
         <v>2</v>
       </c>
       <c r="J113" t="n">
-        <v>1.97</v>
+        <v>3.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.85</v>
+        <v>4.34</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.97</v>
+        <v>2.21</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>4.73</v>
+        <v>2.01</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>24/11/2023 19:29</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-avranches/KnWkNGsa/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>3.51</v>
+        <v>2.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>4.34</v>
+        <v>3.02</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.21</v>
+        <v>3.21</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-martigues/63Y1KERH/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2.2</v>
+        <v>3.01</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.02</v>
+        <v>3.86</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.18</v>
+        <v>2.88</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.21</v>
+        <v>2.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>19/11/2023 23:12</t>
+          <t>20/11/2023 05:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.51</v>
+        <v>2.28</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>24/11/2023 19:26</t>
+          <t>24/11/2023 19:21</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-red-star/KC1oQIct/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>3.01</v>
+        <v>2.32</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.86</v>
+        <v>3.16</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:15</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.59</v>
+        <v>3.27</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>20/11/2023 05:12</t>
+          <t>17/11/2023 18:42</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>24/11/2023 19:21</t>
+          <t>24/11/2023 19:27</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-rouen/riAJUbkP/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,63 +11161,63 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.15</v>
+        <v>3.23</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:15</t>
+          <t>24/11/2023 19:04</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>17/11/2023 18:42</t>
+          <t>19/11/2023 23:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.76</v>
+        <v>3.01</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>24/11/2023 19:27</t>
+          <t>24/11/2023 19:24</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-orleans/h0UcLfCB/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-le-mans/hQagOdSh/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>3</v>
-      </c>
       <c r="J120" t="n">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.34</v>
+        <v>4.45</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.03</v>
+        <v>4.02</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.1</v>
+        <v>7.25</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>4.26</v>
+        <v>6.85</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-nancy/hbwMP93c/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-cholet/Qioz26Bj/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="n">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.53</v>
+        <v>2.08</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.45</v>
+        <v>3.34</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>4.02</v>
+        <v>3.03</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>7.25</v>
+        <v>4.1</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>6.85</v>
+        <v>4.26</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-cholet/Qioz26Bj/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-nancy/hbwMP93c/</t>
         </is>
       </c>
     </row>
@@ -11613,71 +11613,71 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G122" t="n">
+        <v>4</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Villefranche</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>2</v>
-      </c>
       <c r="J122" t="n">
-        <v>2.52</v>
+        <v>1.37</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>2.58</v>
+        <v>1.52</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.37</v>
+        <v>4.5</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.29</v>
+        <v>4.09</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>2.65</v>
+        <v>7.65</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>2.84</v>
+        <v>6.73</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-villefranche/tKVYM7mG/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-marignane/CzMSGJQd/</t>
         </is>
       </c>
     </row>
@@ -11705,30 +11705,30 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="L123" t="n">
-        <v>3.02</v>
+        <v>2.58</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,15 +11736,15 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2.97</v>
+        <v>3.29</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -11752,15 +11752,15 @@
         </is>
       </c>
       <c r="R123" t="n">
-        <v>2.91</v>
+        <v>2.65</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="T123" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-chateauroux/ncWUNmY9/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-villefranche/tKVYM7mG/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,63 +11805,155 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>01/12/2023 19:25</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/epinal-chateauroux/ncWUNmY9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45262.8125</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Nimes</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>27/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>01/12/2023 19:28</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>27/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P124" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>01/12/2023 19:28</t>
-        </is>
-      </c>
-      <c r="R124" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="S124" t="inlineStr">
-        <is>
-          <t>27/11/2023 18:43</t>
-        </is>
-      </c>
-      <c r="T124" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="U124" t="inlineStr">
-        <is>
-          <t>01/12/2023 19:28</t>
-        </is>
-      </c>
-      <c r="V124" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-marignane/CzMSGJQd/</t>
+      <c r="J125" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:07</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>25/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:29</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/red-star-nimes/zNSQOTI3/</t>
         </is>
       </c>
     </row>

--- a/2023/france_national_2023-2024.xlsx
+++ b/2023/france_national_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V125"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10/08/2023 18:24</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>10/08/2023 18:23</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>4.25</v>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:07</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:07</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>3.83</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>10/08/2023 18:23</t>
+          <t>10/08/2023 18:24</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>3.83</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>11/08/2023 19:07</t>
+          <t>11/08/2023 19:25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>3.37</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.47</v>
+        <v>3.22</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.83</v>
+        <v>2.15</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10/08/2023 18:24</t>
+          <t>10/08/2023 18:23</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.83</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>11/08/2023 19:25</t>
+          <t>11/08/2023 19:07</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-rouen/OAs9Yfgb/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-red-star/bTZLVhwH/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.52</v>
+        <v>3.88</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>3.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>18/08/2023 19:21</t>
+          <t>18/08/2023 19:22</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.21</v>
+        <v>4.16</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.97</v>
+        <v>4.41</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.46</v>
+        <v>3.12</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>18/08/2023 18:55</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.27</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>17/08/2023 15:35</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>4.03</v>
+        <v>2.01</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>18/08/2023 19:19</t>
+          <t>18/08/2023 19:27</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.33</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>18/08/2023 19:23</t>
+          <t>18/08/2023 19:25</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,14 +1501,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.17</v>
+        <v>3.41</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.27</v>
+        <v>4.25</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:29</t>
+          <t>18/08/2023 19:23</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-epinal/jRE0OAVj/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.16</v>
+        <v>2.21</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4.41</v>
+        <v>1.97</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.12</v>
+        <v>3.46</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 18:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>3.27</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 15:35</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.01</v>
+        <v>4.03</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:27</t>
+          <t>18/08/2023 19:19</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-red-star/hjeephhA/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-nimes/dO1nnENc/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,63 +1685,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.04</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 11:39</t>
+          <t>17/08/2023 11:40</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="N14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>18/08/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>17/08/2023 11:40</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
         <v>3.25</v>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:39</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>18/08/2023 19:25</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>17/08/2023 11:39</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>3.75</v>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 19:25</t>
+          <t>18/08/2023 19:21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-niort/nDfaqC7G/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-cholet/vmiioYx4/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.06</v>
+        <v>2.36</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,15 +1800,15 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1816,24 +1816,24 @@
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.88</v>
+        <v>3.71</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 11:40</t>
+          <t>17/08/2023 11:39</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 19:22</t>
+          <t>18/08/2023 19:29</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-marignane/rul8sjxT/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-versailles/IX2rmf8i/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
       <c r="J17" t="n">
-        <v>2.73</v>
+        <v>1.88</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.46</v>
+        <v>1.49</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.12</v>
+        <v>3.47</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>4.36</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.73</v>
+        <v>4.24</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>24/08/2023 16:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.07</v>
+        <v>6.72</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>25/08/2023 19:25</t>
+          <t>25/08/2023 19:20</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.84</v>
+        <v>2.81</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.63</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.93</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.22</v>
+        <v>2.67</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>23/08/2023 01:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.74</v>
+        <v>3.27</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>25/08/2023 19:29</t>
+          <t>25/08/2023 19:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.81</v>
+        <v>3.37</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.41</v>
+        <v>3.32</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>2.99</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:03</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 19:43</t>
+          <t>23/08/2023 01:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.27</v>
+        <v>2.45</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>25/08/2023 19:19</t>
+          <t>25/08/2023 19:22</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-martigues/2uHKQLDA/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.37</v>
+        <v>1.84</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.32</v>
+        <v>1.61</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.38</v>
+        <v>3.63</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>2.99</v>
+        <v>3.93</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.08</v>
+        <v>4.22</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.45</v>
+        <v>5.74</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>25/08/2023 19:22</t>
+          <t>25/08/2023 19:29</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-chateauroux/zTP3U3Eo/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-avranches/p4pfA0TT/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>1.88</v>
+        <v>2.73</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.47</v>
+        <v>3.12</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>4.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.24</v>
+        <v>2.73</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>24/08/2023 16:12</t>
+          <t>19/08/2023 19:43</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>6.72</v>
+        <v>3.07</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>25/08/2023 19:20</t>
+          <t>25/08/2023 19:25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-sochaux/nyszcPZN/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nancy/8IHGR1b4/</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -2697,14 +2697,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.62</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.83</v>
+        <v>3.34</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.39</v>
+        <v>3.78</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>5.89</v>
+        <v>3.15</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.47</v>
+        <v>1.84</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.24</v>
+        <v>3.52</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.79</v>
+        <v>4.39</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.61</v>
+        <v>5.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 19:21</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-marignane/UgX06iSe/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.05</v>
+        <v>3.18</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.36</v>
+        <v>3.32</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.72</v>
+        <v>3.86</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 16:33</t>
+          <t>01/09/2023 19:30</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>2.25</v>
+        <v>1.79</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.22</v>
+        <v>3.34</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:29</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.34</v>
+        <v>4.59</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>28/08/2023 21:12</t>
+          <t>30/08/2023 16:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:25</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-epinal/OhEiTEZ8/</t>
         </is>
       </c>
     </row>
@@ -3057,34 +3057,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3.18</v>
+        <v>2.25</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -3092,36 +3092,36 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:29</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.86</v>
+        <v>3.34</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>30/08/2023 16:42</t>
+          <t>28/08/2023 21:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.48</v>
+        <v>3.46</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:30</t>
+          <t>01/09/2023 19:23</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-dijon/rcy55Bs2/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-versailles/p2FmUfK2/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.34</v>
+        <v>3.39</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.59</v>
+        <v>3.72</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:25</t>
+          <t>01/09/2023 16:33</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-epinal/OhEiTEZ8/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-niort/tWFOPuTG/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.93</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.78</v>
+        <v>2.79</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.15</v>
+        <v>3.61</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>01/09/2023 19:23</t>
+          <t>01/09/2023 19:21</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-nimes/ITSfSYlF/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-orleans/zXXd7XCk/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.65</v>
+        <v>2.95</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.07</v>
+        <v>2.78</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.86</v>
+        <v>3.12</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.54</v>
+        <v>2.8</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.11</v>
+        <v>2.53</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.57</v>
+        <v>3.06</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>08/09/2023 19:29</t>
+          <t>08/09/2023 19:17</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Sochaux</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
       <c r="J34" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.74</v>
+        <v>2.07</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,31 +3548,31 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.34</v>
+        <v>3.86</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.05</v>
+        <v>3.54</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>08/09/2023 19:19</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.67</v>
+        <v>5.11</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>05/09/2023 23:42</t>
+          <t>05/09/2023 22:11</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.84</v>
+        <v>3.57</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-villefranche/vqH3QCJR/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.48</v>
+        <v>3.87</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>08/09/2023 18:55</t>
+          <t>08/09/2023 19:20</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.12</v>
+        <v>2.59</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.06</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>08/09/2023 19:26</t>
+          <t>08/09/2023 19:27</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.87</v>
+        <v>2.48</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>05/09/2023 22:11</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>08/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>3.12</v>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>05/09/2023 22:11</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>08/09/2023 19:20</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>05/09/2023 22:11</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>3.06</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>08/09/2023 19:27</t>
+          <t>08/09/2023 19:26</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nancy/lI6wKAde/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-cholet/dKRbRh4L/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,63 +3801,63 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>2.95</v>
+        <v>1.99</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.12</v>
+        <v>3.34</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:19</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.53</v>
+        <v>3.67</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>05/09/2023 22:11</t>
+          <t>05/09/2023 23:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.06</v>
+        <v>2.84</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>08/09/2023 19:17</t>
+          <t>08/09/2023 19:29</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-martigues/AR7ZKjsk/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-sochaux/zXLqHSKu/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.58</v>
+        <v>1.95</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.27</v>
+        <v>3.95</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.24</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.26</v>
+        <v>4.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>11/09/2023 21:13</t>
+          <t>12/09/2023 12:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.87</v>
+        <v>4.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>15/09/2023 19:27</t>
+          <t>15/09/2023 19:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.6</v>
+        <v>3.27</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>5.48</v>
+        <v>3.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>12/09/2023 12:42</t>
+          <t>11/09/2023 21:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.77</v>
+        <v>2.87</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>15/09/2023 19:13</t>
+          <t>15/09/2023 19:27</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
+          <t>https://www.betexplorer.com/football/france/national/avranches-orleans/W0OTURAD/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Epinal</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.28</v>
+        <v>3.35</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.3</v>
+        <v>5.48</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>3.94</v>
+        <v>3.77</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>15/09/2023 19:21</t>
+          <t>15/09/2023 19:13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-sochaux/ENKmGnzn/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.6</v>
+        <v>1.79</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.49</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4848,11 +4848,11 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.98</v>
+        <v>4.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.36</v>
+        <v>3.94</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>15/09/2023 19:28</t>
+          <t>15/09/2023 19:21</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-marignane/hAPPV7e7/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-epinal/WxtsvWmR/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>29/09/2023 19:22</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.37</v>
+        <v>3.05</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>29/09/2023 18:35</t>
+          <t>29/09/2023 10:41</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.99</v>
+        <v>4.43</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>22/09/2023 22:42</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.67</v>
+        <v>3.09</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>29/09/2023 19:22</t>
+          <t>29/09/2023 18:48</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/villefranche-orleans/ptnUC87I/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.43</v>
+        <v>3.03</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.01</v>
+        <v>3.06</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>26/09/2023 13:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.81</v>
+        <v>4.09</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:23</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:13</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.29</v>
+        <v>3.19</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.77</v>
+        <v>3.27</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>26/09/2023 13:13</t>
+          <t>26/09/2023 13:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.52</v>
+        <v>3.79</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 19:27</t>
+          <t>29/09/2023 19:21</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:13</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.03</v>
+        <v>3.29</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.06</v>
+        <v>3.19</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.09</v>
+        <v>2.77</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.09</v>
+        <v>2.52</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>29/09/2023 19:23</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-sochaux/AkEdEQ4b/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-dijon/OQcLEUx6/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,14 +6285,14 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.55</v>
+        <v>2.22</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>29/09/2023 10:41</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.43</v>
+        <v>3.5</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.09</v>
+        <v>3.81</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>29/09/2023 18:48</t>
+          <t>29/09/2023 19:27</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-nimes/EeQsWV7t/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-martigues/2HdPDlhC/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:22</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.22</v>
+        <v>3.37</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 18:35</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.27</v>
+        <v>3.99</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>26/09/2023 13:12</t>
+          <t>22/09/2023 22:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.79</v>
+        <v>3.67</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>29/09/2023 19:21</t>
+          <t>29/09/2023 19:22</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-epinal/CnvGzCaP/</t>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-orleans/ptnUC87I/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2.41</v>
+        <v>1.77</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.44</v>
+        <v>1.81</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.1</v>
+        <v>3.66</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.01</v>
+        <v>4.56</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>04/10/2023 22:42</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.25</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 19:22</t>
+          <t>06/10/2023 19:25</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.75</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.5</v>
+        <v>2.73</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.53</v>
+        <v>3.13</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.05</v>
+        <v>2.98</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.51</v>
+        <v>3.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>7.33</v>
+        <v>2.93</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 19:23</t>
+          <t>06/10/2023 19:24</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -6837,22 +6837,22 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>3.37</v>
+        <v>2.41</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6860,15 +6860,15 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
@@ -6876,15 +6876,15 @@
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.21</v>
+        <v>3.01</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>05/10/2023 11:56</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.21</v>
+        <v>3.25</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-niort/2wYaQRyI/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.1</v>
+        <v>3.53</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>2.91</v>
+        <v>4.05</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.68</v>
+        <v>4.51</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>05/10/2023 11:57</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.58</v>
+        <v>7.33</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 19:27</t>
+          <t>06/10/2023 19:23</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-marignane/YctqU9xg/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.27</v>
+        <v>2.68</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.13</v>
+        <v>2.68</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:57</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.16</v>
+        <v>2.58</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 19:20</t>
+          <t>06/10/2023 19:27</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-chateauroux/OnZeR7MB/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,38 +7113,38 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.43</v>
+        <v>3.37</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.73</v>
+        <v>3.45</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.98</v>
+        <v>3.31</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,24 +7152,24 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.09</v>
+        <v>2.21</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>04/10/2023 18:42</t>
+          <t>05/10/2023 11:56</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.93</v>
+        <v>2.21</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>06/10/2023 19:24</t>
+          <t>06/10/2023 19:22</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-nancy/zR2Eqkxt/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-rouen/A3y8O56U/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.77</v>
+        <v>2.27</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.66</v>
+        <v>3.21</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.64</v>
+        <v>2.92</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.56</v>
+        <v>3.13</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>04/10/2023 22:42</t>
+          <t>04/10/2023 18:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.55</v>
+        <v>3.16</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>06/10/2023 19:25</t>
+          <t>06/10/2023 19:20</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-villefranche/WCx4PoiO/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-le-mans/SKumTTia/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.67</v>
+        <v>2.88</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.78</v>
+        <v>3.38</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.3</v>
+        <v>2.69</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>11/10/2023 20:57</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>4.38</v>
+        <v>3.01</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.52</v>
+        <v>3.07</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.89</v>
+        <v>2.64</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:58</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
+          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Versailles</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.23</v>
+        <v>1.63</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:51</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.42</v>
+        <v>4.9</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.41</v>
+        <v>5.38</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.41</v>
+        <v>8.35</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>11/10/2023 20:56</t>
+          <t>11/10/2023 20:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.31</v>
+        <v>2.78</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.88</v>
+        <v>3.67</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.38</v>
+        <v>2.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.69</v>
+        <v>2.3</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:57</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-sochaux/IFH4C4ZA/</t>
+          <t>https://www.betexplorer.com/football/france/national/marignane-nimes/A3cwvo6H/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.01</v>
+        <v>4.38</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.07</v>
+        <v>2.52</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.64</v>
+        <v>1.89</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>11/10/2023 20:58</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/cholet-orleans/O61sw5LN/</t>
+          <t>https://www.betexplorer.com/football/france/national/nancy-red-star/n16Ir9in/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.63</v>
+        <v>2.23</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:51</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.9</v>
+        <v>3.42</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.38</v>
+        <v>3.41</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>8.35</v>
+        <v>4.41</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>11/10/2023 20:59</t>
+          <t>11/10/2023 20:56</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-epinal/KE4QtmMb/</t>
+          <t>https://www.betexplorer.com/football/france/national/niort-versailles/tO5MsT6h/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.42</v>
+        <v>1.75</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.15</v>
+        <v>3.43</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.94</v>
+        <v>5.18</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.5</v>
+        <v>5.27</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>20/10/2023 19:26</t>
+          <t>20/10/2023 19:11</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.52</v>
+        <v>2.42</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.86</v>
+        <v>2.22</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.28</v>
+        <v>3.23</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.94</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>20/10/2023 19:21</t>
+          <t>20/10/2023 19:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-villefranche/0v79BOlH/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.7</v>
+        <v>3.01</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.17</v>
+        <v>3.27</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="P87" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:24</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
         <v>2.96</v>
       </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>20/10/2023 19:28</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>2.79</v>
-      </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>19/10/2023 12:43</t>
+          <t>18/10/2023 22:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>2.67</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:24</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
+          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.27</v>
+        <v>3.21</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 17:40</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4</v>
+        <v>2.87</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.19</v>
+        <v>3.16</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>20/10/2023 19:28</t>
+          <t>20/10/2023 19:01</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
+          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.01</v>
+        <v>2.7</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>18/10/2023 22:42</t>
+          <t>19/10/2023 12:43</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>20/10/2023 19:24</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/nimes-dijon/dEY7gQ54/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-nancy/rBU3f6jb/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.44</v>
+        <v>3.52</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.5</v>
+        <v>3.86</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>20/10/2023 17:40</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.87</v>
+        <v>2.1</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>20/10/2023 19:01</t>
+          <t>20/10/2023 19:21</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/orleans-niort/n3RKjOkN/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-le-mans/URWFi4zH/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,14 +8769,14 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.18</v>
+        <v>4</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.27</v>
+        <v>4.19</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>20/10/2023 19:11</t>
+          <t>20/10/2023 19:28</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-marignane/0nuaenyh/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-chateauroux/8vwEXrqo/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>2.72</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.91</v>
+        <v>1.93</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.81</v>
+        <v>3.3</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.88</v>
+        <v>4.44</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/11/2023 22:42</t>
+          <t>02/11/2023 00:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.91</v>
+        <v>4.45</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/11/2023 19:27</t>
+          <t>03/11/2023 19:23</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
+          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.73</v>
+        <v>2.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.93</v>
+        <v>2.91</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.3</v>
+        <v>2.81</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.44</v>
+        <v>2.88</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>02/11/2023 00:42</t>
+          <t>01/11/2023 22:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.45</v>
+        <v>2.91</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/11/2023 19:23</t>
+          <t>03/11/2023 19:27</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/dijon-versailles/rZCjo2Dp/</t>
+          <t>https://www.betexplorer.com/football/france/national/chateauroux-rouen/dEfw955i/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Versailles</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Nimes</t>
+          <t>Cholet</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.35</v>
+        <v>1.61</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.09</v>
+        <v>3.97</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>2.87</v>
+        <v>3.92</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:17</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.72</v>
+        <v>5.68</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>3.69</v>
+        <v>5.75</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>10/11/2023 19:21</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Villefranche</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>1.53</v>
+        <v>2.01</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.97</v>
+        <v>3.35</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:17</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>5.68</v>
+        <v>3.87</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>5.75</v>
+        <v>4.76</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>10/11/2023 19:29</t>
+          <t>10/11/2023 19:23</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-cholet/WvqtgGYk/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
         </is>
       </c>
     </row>
@@ -10049,30 +10049,30 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Red Star</t>
+          <t>Versailles</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Nimes</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.39</v>
+        <v>2.35</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
@@ -10080,40 +10080,40 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.36</v>
+        <v>3.09</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.5</v>
+        <v>2.87</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>7.17</v>
+        <v>3.72</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.109999999999999</v>
+        <v>3.69</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
+          <t>https://www.betexplorer.com/football/france/national/versailles-nimes/0WzGAwbg/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Red Star</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Villefranche</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:21</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.35</v>
+        <v>4.36</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.38</v>
+        <v>4.5</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.87</v>
+        <v>7.17</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.76</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>10/11/2023 19:23</t>
+          <t>10/11/2023 19:27</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-villefranche/69yCBJrm/</t>
+          <t>https://www.betexplorer.com/football/france/national/red-star-marignane/YLSS7yrC/</t>
         </is>
       </c>
     </row>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Martigues</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Avranches</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.93</v>
+        <v>2.73</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,7 +10256,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.85</v>
+        <v>2.53</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.33</v>
+        <v>3.21</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,32 +10272,32 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>10/11/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>04/11/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
           <t>10/11/2023 19:29</t>
         </is>
       </c>
-      <c r="R107" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>04/11/2023 04:43</t>
-        </is>
-      </c>
-      <c r="T107" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>10/11/2023 19:29</t>
-        </is>
-      </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
         </is>
       </c>
     </row>
@@ -10325,30 +10325,30 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>GOAL FC</t>
+          <t>Martigues</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Niort</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -10356,31 +10356,31 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.11</v>
+        <v>3.33</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2.93</v>
+        <v>3.29</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>10/11/2023 19:26</t>
+          <t>10/11/2023 19:29</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.08</v>
+        <v>4.22</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>06/11/2023 18:42</t>
+          <t>04/11/2023 04:43</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.81</v>
+        <v>4.94</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
+          <t>https://www.betexplorer.com/football/france/national/martigues-nancy/SIx8CaTt/</t>
         </is>
       </c>
     </row>
@@ -10417,30 +10417,30 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>GOAL FC</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Avranches</t>
+          <t>Niort</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.53</v>
+        <v>2.27</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,31 +10448,31 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.22</v>
+        <v>2.93</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>10/11/2023 19:27</t>
+          <t>10/11/2023 19:26</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.67</v>
+        <v>3.08</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>04/11/2023 04:43</t>
+          <t>06/11/2023 18:42</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.96</v>
+        <v>3.81</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-avranches/2eXW6ecI/</t>
+          <t>https://www.betexplorer.com/football/france/national/goal-fc-niort/C6vK9cDa/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Cholet</t>
+          <t>Marignane</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.02</v>
+        <v>4.09</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>7.25</v>
+        <v>7.65</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>27/11/2023 00:42</t>
+          <t>27/11/2023 18:43</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>6.85</v>
+        <v>6.73</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>01/12/2023 19:26</t>
+          <t>01/12/2023 19:28</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/rouen-cholet/Qioz26Bj/</t>
+          <t>https://www.betexplorer.com/football/france/national/sochaux-marignane/CzMSGJQd/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
         <v>1</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Nancy</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>3</v>
-      </c>
       <c r="J121" t="n">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.34</v>
+        <v>4.45</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.03</v>
+        <v>4.02</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>4.1</v>
+        <v>7.25</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>25/11/2023 01:42</t>
+          <t>27/11/2023 00:42</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>4.26</v>
+        <v>6.85</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>01/12/2023 19:21</t>
+          <t>01/12/2023 19:26</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/le-mans-nancy/hbwMP93c/</t>
+          <t>https://www.betexplorer.com/football/france/national/rouen-cholet/Qioz26Bj/</t>
         </is>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Epinal</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -11621,63 +11621,63 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Marignane</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1.37</v>
+        <v>2.59</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:43</t>
+          <t>26/11/2023 15:12</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.52</v>
+        <v>3.02</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:28</t>
+          <t>01/12/2023 19:25</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>4.5</v>
+        <v>3.19</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:43</t>
+          <t>26/11/2023 15:12</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>4.09</v>
+        <v>2.97</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:28</t>
+          <t>01/12/2023 19:25</t>
         </is>
       </c>
       <c r="R122" t="n">
-        <v>7.65</v>
+        <v>2.91</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
-          <t>27/11/2023 18:43</t>
+          <t>26/11/2023 15:12</t>
         </is>
       </c>
       <c r="T122" t="n">
-        <v>6.73</v>
+        <v>2.66</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
-          <t>01/12/2023 19:28</t>
+          <t>01/12/2023 19:25</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/sochaux-marignane/CzMSGJQd/</t>
+          <t>https://www.betexplorer.com/football/france/national/epinal-chateauroux/ncWUNmY9/</t>
         </is>
       </c>
     </row>
@@ -11797,71 +11797,71 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Epinal</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.59</v>
+        <v>1.95</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.02</v>
+        <v>2.08</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.19</v>
+        <v>3.34</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.97</v>
+        <v>3.03</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.91</v>
+        <v>4.1</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>26/11/2023 15:12</t>
+          <t>25/11/2023 01:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.66</v>
+        <v>4.26</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>01/12/2023 19:25</t>
+          <t>01/12/2023 19:21</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/france/national/epinal-chateauroux/ncWUNmY9/</t>
+          <t>https://www.betexplorer.com/football/france/national/le-mans-nancy/hbwMP93c/</t>
         </is>
       </c>
     </row>
@@ -11954,6 +11954,834 @@
       <c r="V125" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/france/national/red-star-nimes/zNSQOTI3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45264.875</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>28/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>28/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>28/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/martigues-niort/n1nW2ndp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Villefranche</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:22</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/villefranche-chateauroux/nLEHEqed/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Cholet</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Le Mans</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/cholet-le-mans/zsi8y729/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sochaux</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>3</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>08/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>08/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>08/12/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/dijon-sochaux/QwQWFwt3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Marignane</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Martigues</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:21</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>08/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/marignane-martigues/lQh0wTXd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Avranches</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/nancy-avranches/xnPsLoIS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Niort</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>11/12/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:27</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/niort-rouen/veB9G5Qq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45275.8125</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Epinal</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:26</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>08/12/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>15/12/2023 19:28</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/orleans-epinal/EXkCzRHF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>france</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45278.875</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Versailles</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Red Star</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:07</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:07</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:07</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/france/national/versailles-red-star/YHADFPuj/</t>
         </is>
       </c>
     </row>
